--- a/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426254.927113081</v>
+        <v>3426254.927113044</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099499979</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099499979</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177045</v>
+        <v>3940022.790763417</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177045</v>
+        <v>3940022.790763417</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494146826.703394</v>
+        <v>56586889.23296171</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.4706963214948</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>300.2841796816777</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.4706963214948</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205673</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S6" t="n">
         <v>408.192915058951</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.4706963202488</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1223,10 +1223,10 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9376868977026</v>
+        <v>346.4039869401295</v>
       </c>
       <c r="E9" t="n">
-        <v>341.1383972643385</v>
+        <v>342.6720972219126</v>
       </c>
       <c r="F9" t="n">
         <v>339.6362423378769</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.4706963202523</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
-        <v>560.964918411981</v>
+        <v>559.5765741190048</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="T13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F14" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G14" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>346.4706963202523</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.39810218700126</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>396.4956611600225</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S18" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>480.6109686627515</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C20" t="n">
         <v>449.4745782429939</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963202523</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>14.39810218700129</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>397.8840054528454</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S27" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129554181</v>
+        <v>481.9993129553962</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428375</v>
+        <v>449.4745782428157</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557396934</v>
+        <v>410.3391557396715</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896067122</v>
+        <v>404.3632896066904</v>
       </c>
       <c r="F29" t="n">
-        <v>403.5012844170701</v>
+        <v>404.8896287078336</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054526889</v>
+        <v>397.8840054526671</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406129188</v>
+        <v>347.8590406128969</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210684981</v>
+        <v>361.0088210684763</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118246</v>
+        <v>560.9649184118027</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272017206</v>
+        <v>648.7514272016988</v>
       </c>
       <c r="V29" t="n">
-        <v>629.8510241666675</v>
+        <v>628.4626798761643</v>
       </c>
       <c r="W29" t="n">
-        <v>638.3734759807911</v>
+        <v>638.3734759807693</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334605113</v>
+        <v>592.2818334604895</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.31743268265</v>
+        <v>511.3174326826281</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S30" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151019022</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -2939,13 +2939,13 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W30" t="n">
-        <v>430.8394429536382</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X30" t="n">
         <v>419.8627394453875</v>
       </c>
       <c r="Y30" t="n">
-        <v>399.3913927659779</v>
+        <v>399.3913927661343</v>
       </c>
     </row>
     <row r="31">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4706963200989</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S33" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>14.39810218700129</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
-        <v>448.0862339512598</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D35" t="n">
         <v>410.3391557398498</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T35" t="n">
         <v>560.964918411981</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S36" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T38" t="n">
         <v>560.964918411981</v>
       </c>
       <c r="U38" t="n">
-        <v>647.3630829101428</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V38" t="n">
         <v>629.8510241668239</v>
@@ -3638,7 +3638,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S39" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3650,7 +3650,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W39" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X39" t="n">
         <v>419.8627394453875</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F41" t="n">
-        <v>403.5012844162778</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
         <v>397.8840054528454</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453138922</v>
       </c>
       <c r="F44" t="n">
-        <v>403.50128441501</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
         <v>397.8840054528454</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347547569</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622049595</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626352777</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859073112</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361357261</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
-        <v>490.930400324771</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H2" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>599.777145475681</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K2" t="n">
-        <v>2049.126655391389</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L2" t="n">
-        <v>2966.719378707971</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M2" t="n">
-        <v>3448.898578221474</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N2" t="n">
-        <v>4845.157279159623</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O2" t="n">
-        <v>5755.312162100367</v>
+        <v>5300.086946950893</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q2" t="n">
+        <v>6931.116362236999</v>
+      </c>
+      <c r="R2" t="n">
         <v>7048.000000000002</v>
       </c>
-      <c r="R2" t="n">
-        <v>7048.00000000144</v>
-      </c>
       <c r="S2" t="n">
-        <v>6683.344625184617</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394465444</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922544357</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766820292</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073910244</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595667145</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340431987</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4391,76 +4391,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2285.562842359595</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C3" t="n">
-        <v>1920.81545605099</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1569.363247063412</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
-        <v>1223.229815526126</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>880.162904073725</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>554.3073408685325</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876547167</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="J3" t="n">
-        <v>558.8475295149505</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K3" t="n">
-        <v>1250.415257213107</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L3" t="n">
-        <v>2197.270784374346</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M3" t="n">
-        <v>3071.633876117205</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N3" t="n">
-        <v>4014.060204215339</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O3" t="n">
-        <v>4993.313206182077</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P3" t="n">
-        <v>5699.926775368564</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q3" t="n">
-        <v>5925.707874249744</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R3" t="n">
-        <v>5569.989306372937</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S3" t="n">
-        <v>5157.673230555814</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T3" t="n">
-        <v>4761.015482194308</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U3" t="n">
-        <v>4356.971427166865</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V3" t="n">
-        <v>3938.273783539067</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W3" t="n">
-        <v>3501.533235145301</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X3" t="n">
-        <v>3077.429457927738</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y3" t="n">
-        <v>2674.003808669016</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="4">
@@ -4470,76 +4470,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="H4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="I4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="J4" t="n">
-        <v>290.4466099967424</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>457.4949902105222</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902105222</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902105222</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902105222</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902105222</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902105222</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
-        <v>351.2038120028475</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="S4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="T4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4549,76 +4549,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.759347547569</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622049595</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626352777</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859073112</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361357261</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G5" t="n">
-        <v>490.930400324771</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H5" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>599.777145475681</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>1339.42028904352</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>2936.062862427503</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M5" t="n">
-        <v>3418.242061941006</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N5" t="n">
-        <v>3983.285125813678</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O5" t="n">
-        <v>4893.440008754422</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490199218</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048.00000000144</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R5" t="n">
-        <v>7048.00000000144</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625184617</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394465444</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922544357</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766820292</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073910244</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595667145</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340431987</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="6">
@@ -4628,76 +4628,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285.562842359595</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C6" t="n">
-        <v>1920.81545605099</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D6" t="n">
-        <v>1569.363247063412</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E6" t="n">
-        <v>1223.229815526126</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F6" t="n">
-        <v>880.162904073725</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G6" t="n">
-        <v>554.3073408685325</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783797</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="J6" t="n">
-        <v>558.8475295149505</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K6" t="n">
-        <v>1250.415257213107</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L6" t="n">
-        <v>2197.270784374346</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M6" t="n">
-        <v>3071.633876117205</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N6" t="n">
-        <v>4014.060204215339</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O6" t="n">
-        <v>4993.313206182077</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P6" t="n">
-        <v>5699.926775368564</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q6" t="n">
-        <v>5925.707874249744</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R6" t="n">
-        <v>5569.989306372937</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S6" t="n">
-        <v>5157.673230555814</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T6" t="n">
-        <v>4761.015482194308</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U6" t="n">
-        <v>4356.971427166865</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V6" t="n">
-        <v>3938.273783539067</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W6" t="n">
-        <v>3501.533235145301</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X6" t="n">
-        <v>3077.429457927738</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y6" t="n">
-        <v>2674.003808669016</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="7">
@@ -4707,76 +4707,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>290.4466099967424</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902105222</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L7" t="n">
-        <v>457.4949902105222</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M7" t="n">
-        <v>457.4949902105222</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N7" t="n">
-        <v>457.4949902105222</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902105222</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902105222</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q7" t="n">
-        <v>351.2038120028475</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="S7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>140.9600000000288</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4786,76 +4786,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546285</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048311</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351493</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071827</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361344419</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003234868</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397735</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154257</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1415.008586083265</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>2332.601309399848</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M8" t="n">
-        <v>2814.780508913351</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N8" t="n">
-        <v>3379.823572786023</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O8" t="n">
-        <v>5124.203572786052</v>
+        <v>4893.440008752984</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434931</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362237152</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R8" t="n">
-        <v>7048.000000000156</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183333</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.71339446416</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922543073</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766819008</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.37407390896</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665861</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430703</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4865,76 +4865,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2285.562842359569</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C9" t="n">
-        <v>1920.815456050964</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D9" t="n">
-        <v>1569.363247063385</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F9" t="n">
-        <v>881.7120959500362</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448438</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H9" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I9" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="J9" t="n">
-        <v>558.8475295149248</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K9" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L9" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M9" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N9" t="n">
-        <v>4014.060204215313</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O9" t="n">
-        <v>4993.313206182051</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P9" t="n">
-        <v>5699.926775368538</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q9" t="n">
-        <v>5925.707874249718</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R9" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S9" t="n">
-        <v>5157.673230555788</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T9" t="n">
-        <v>4761.015482194282</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U9" t="n">
-        <v>4356.971427166839</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V9" t="n">
-        <v>3938.273783539041</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W9" t="n">
-        <v>3501.533235145274</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X9" t="n">
-        <v>3077.429457927711</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y9" t="n">
-        <v>2674.00380866899</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="10">
@@ -4944,76 +4944,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893227</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="L10" t="n">
-        <v>457.4949902104966</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104966</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104966</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104966</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104966</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q10" t="n">
-        <v>351.2038120028218</v>
+        <v>351.2038120028187</v>
       </c>
       <c r="R10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>140.9600000000031</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,76 +5023,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546288</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048314</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351496</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071831</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361344455</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003234904</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>216.5482970397736</v>
+        <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154257</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K11" t="n">
-        <v>1415.008586083265</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L11" t="n">
-        <v>2846.826260951316</v>
+        <v>2748.266680678619</v>
       </c>
       <c r="M11" t="n">
-        <v>3329.005460464818</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N11" t="n">
-        <v>3894.048524337491</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337521</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434934</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362237156</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R11" t="n">
-        <v>7048.000000000159</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464164</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922543076</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766819012</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908964</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665865</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430707</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5102,76 +5102,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C12" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D12" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E12" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F12" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G12" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H12" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I12" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J12" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K12" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L12" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M12" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N12" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O12" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P12" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q12" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T12" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U12" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V12" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W12" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X12" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y12" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="13">
@@ -5181,76 +5181,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J13" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893228</v>
+        <v>140.96</v>
       </c>
       <c r="T13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351496</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071831</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361344455</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.9304003234904</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J14" t="n">
-        <v>599.7771454756553</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K14" t="n">
-        <v>2049.126655391363</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L14" t="n">
-        <v>2966.719378707946</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M14" t="n">
-        <v>3448.898578221449</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N14" t="n">
-        <v>4013.941642094121</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O14" t="n">
-        <v>5755.312162100524</v>
+        <v>5048.61527574625</v>
       </c>
       <c r="P14" t="n">
-        <v>6591.179490197937</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048.000000000159</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000159</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="15">
@@ -5339,76 +5339,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C15" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D15" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E15" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F15" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G15" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H15" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I15" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J15" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K15" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L15" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M15" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N15" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O15" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P15" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q15" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372911</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T15" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U15" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V15" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W15" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X15" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y15" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="16">
@@ -5418,76 +5418,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J16" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T16" t="n">
-        <v>293.2980670266953</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="17">
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351496</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071831</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361344455</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960388</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H17" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>140.9600000000032</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>1025.77883469595</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K17" t="n">
-        <v>1765.421978263789</v>
+        <v>2053.555015773447</v>
       </c>
       <c r="L17" t="n">
-        <v>2683.014701580372</v>
+        <v>3797.935015773448</v>
       </c>
       <c r="M17" t="n">
-        <v>3553.537024987227</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N17" t="n">
-        <v>4118.580088859899</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O17" t="n">
-        <v>5028.734971800643</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P17" t="n">
-        <v>5864.602299898056</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362237156</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000159</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5576,76 +5576,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C18" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D18" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E18" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F18" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H18" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I18" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K18" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L18" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M18" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N18" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O18" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P18" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q18" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5571.538498249248</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W18" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X18" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y18" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="19">
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518836</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020863</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324045</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044379</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069938</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960388</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H20" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397736</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154257</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>2046.117175397736</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L20" t="n">
-        <v>2963.709898714319</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M20" t="n">
-        <v>3445.889098227822</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N20" t="n">
-        <v>4010.932162100494</v>
+        <v>3805.825262006314</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100524</v>
+        <v>4715.980144947059</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.179490197937</v>
+        <v>6413.719626391855</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048.000000000159</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000159</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="21">
@@ -5813,76 +5813,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C21" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D21" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E21" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F21" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H21" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I21" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K21" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L21" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M21" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N21" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O21" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P21" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q21" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5571.538498249248</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T21" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U21" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V21" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W21" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X21" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y21" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="22">
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N22" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O22" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P22" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R22" t="n">
-        <v>140.9600000000032</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="S22" t="n">
-        <v>140.9600000000032</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="T22" t="n">
-        <v>140.9600000000032</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="W22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="X22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546288</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048314</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351496</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071831</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361344455</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003234904</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H23" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397736</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154257</v>
+        <v>704.415592241276</v>
       </c>
       <c r="K23" t="n">
-        <v>2124.714952431133</v>
+        <v>2153.765102156984</v>
       </c>
       <c r="L23" t="n">
-        <v>3042.307675747716</v>
+        <v>3071.357825473567</v>
       </c>
       <c r="M23" t="n">
-        <v>3524.486875261219</v>
+        <v>3553.537024987069</v>
       </c>
       <c r="N23" t="n">
-        <v>4089.529939133891</v>
+        <v>4118.580088859741</v>
       </c>
       <c r="O23" t="n">
-        <v>4999.684822074635</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434934</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237156</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000159</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183337</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464164</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922543076</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766819012</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908964</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665865</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430707</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2287.112034235907</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C24" t="n">
-        <v>1922.364647927301</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.912438939723</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E24" t="n">
-        <v>1224.779007402437</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500364</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448439</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H24" t="n">
-        <v>250.989987654691</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I24" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149249</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K24" t="n">
-        <v>1250.415257213082</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L24" t="n">
-        <v>2197.27078437432</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M24" t="n">
-        <v>3071.633876117179</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N24" t="n">
-        <v>4014.060204215314</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O24" t="n">
-        <v>4993.313206182052</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P24" t="n">
-        <v>5699.926775368539</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q24" t="n">
-        <v>5925.707874249719</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249248</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
-        <v>5159.222422432125</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070619</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043176</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415379</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W24" t="n">
-        <v>3503.082427021612</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X24" t="n">
-        <v>3078.978649804049</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y24" t="n">
-        <v>2675.553000545327</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="25">
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="I25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967167</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893228</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T25" t="n">
-        <v>140.9600000000032</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U25" t="n">
-        <v>140.9600000000032</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="V25" t="n">
-        <v>140.9600000000032</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="W25" t="n">
-        <v>140.9600000000032</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="X25" t="n">
-        <v>140.9600000000032</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.9600000000032</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E26" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G26" t="n">
         <v>492.3327682960356</v>
@@ -6229,28 +6229,28 @@
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
-        <v>2257.013012360075</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M26" t="n">
-        <v>3788.860546968407</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N26" t="n">
-        <v>4353.903610841079</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O26" t="n">
-        <v>5264.058493781823</v>
+        <v>4999.684822074631</v>
       </c>
       <c r="P26" t="n">
-        <v>6099.925821879237</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q26" t="n">
         <v>7048.000000000002</v>
@@ -6259,25 +6259,25 @@
         <v>7048.000000000002</v>
       </c>
       <c r="S26" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6420,13 +6420,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="T28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W28" t="n">
         <v>140.96</v>
@@ -6445,22 +6445,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347547395</v>
+        <v>2580.161715517753</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049579</v>
+        <v>2126.14699001996</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352919</v>
+        <v>1711.662994323322</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859073412</v>
+        <v>1303.215227043836</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041066745</v>
+        <v>894.2358041066304</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682958776</v>
+        <v>492.3327682958555</v>
       </c>
       <c r="H29" t="n">
         <v>140.96</v>
@@ -6469,52 +6469,52 @@
         <v>140.96</v>
       </c>
       <c r="J29" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K29" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L29" t="n">
-        <v>2683.01470158037</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M29" t="n">
-        <v>3445.889098227694</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N29" t="n">
-        <v>4010.932162100366</v>
+        <v>4389.93206401015</v>
       </c>
       <c r="O29" t="n">
-        <v>5755.312162100367</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P29" t="n">
-        <v>6591.17949019778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048.000000000002</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R29" t="n">
         <v>7048.000000000002</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183359</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464323</v>
+        <v>6116.713394464367</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543393</v>
+        <v>5461.408922543458</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819486</v>
+        <v>4826.598134789757</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909597</v>
+        <v>4181.776441879889</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666656</v>
+        <v>3583.51196363697</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431656</v>
+        <v>3067.029708401992</v>
       </c>
     </row>
     <row r="30">
@@ -6548,49 +6548,49 @@
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150765</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213388</v>
+        <v>1250.415257213255</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374781</v>
+        <v>2197.270784374493</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117795</v>
+        <v>3071.633876117529</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204216084</v>
+        <v>4014.060204215663</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182977</v>
+        <v>4993.313206182578</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.92677536962</v>
+        <v>5699.926775369066</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250955</v>
+        <v>5925.707874250245</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306374147</v>
+        <v>5569.989306373438</v>
       </c>
       <c r="S30" t="n">
-        <v>5157.673230557025</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T30" t="n">
-        <v>4761.015482195518</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U30" t="n">
-        <v>4356.971427168076</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V30" t="n">
-        <v>3938.273783540278</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427021451</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649803888</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y30" t="n">
         <v>2675.553000545324</v>
@@ -6657,13 +6657,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
         <v>140.96</v>
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342872</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
       </c>
       <c r="I32" t="n">
-        <v>140.9600000000257</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J32" t="n">
-        <v>1025.778834695973</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>1765.421978263812</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L32" t="n">
-        <v>3509.80197826413</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523947</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396619</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337363</v>
+        <v>5124.20357278602</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434777</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236999</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R32" t="n">
         <v>7048.000000000002</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235929</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927324</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.912438939745</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.77900740246</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500589</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448664</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876547136</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I33" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149474</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213104</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374342</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117201</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.060204215336</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182074</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368562</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249742</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249271</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432148</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070642</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043199</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415401</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021634</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804071</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.55300054535</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967393</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893454</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893454</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893454</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893454</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893454</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893454</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893454</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893454</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S34" t="n">
-        <v>140.9600000000257</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T34" t="n">
-        <v>140.9600000000257</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U34" t="n">
-        <v>140.9600000000257</v>
+        <v>155.5035375626276</v>
       </c>
       <c r="V34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.9600000000257</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.75934754741</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020885</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324067</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044402</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041070162</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960612</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397961</v>
+        <v>140.96</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154482</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K35" t="n">
-        <v>1415.008586083287</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L35" t="n">
-        <v>2332.601309399871</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M35" t="n">
-        <v>2814.780508913374</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N35" t="n">
-        <v>3379.823572786046</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O35" t="n">
-        <v>5124.203572786391</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.179490199061</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048.000000001282</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000001282</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.34462518446</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394465287</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922544199</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766820134</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073910086</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595666987</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340431829</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.112034235929</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.364647927324</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.912438939745</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.77900740246</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500589</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448664</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876547135</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I36" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149473</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.415257213104</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374342</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117201</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.060204215336</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.313206182074</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368562</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249742</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5571.538498249271</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432148</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070642</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043199</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415401</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021634</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804071</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.55300054535</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="C37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="D37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="E37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="F37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="G37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="H37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967392</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U37" t="n">
-        <v>155.5035375626532</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V37" t="n">
-        <v>140.9600000000256</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="X37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518859</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020885</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324067</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044402</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041070162</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960612</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H38" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397961</v>
+        <v>140.96</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154482</v>
+        <v>974.1471760311933</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083287</v>
+        <v>1713.790319599033</v>
       </c>
       <c r="L38" t="n">
-        <v>2936.062862427346</v>
+        <v>2631.383042915616</v>
       </c>
       <c r="M38" t="n">
-        <v>3418.242061940849</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N38" t="n">
-        <v>3983.285125813521</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O38" t="n">
-        <v>4893.440008754264</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P38" t="n">
-        <v>6591.179490199061</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q38" t="n">
-        <v>7048.000000001282</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000001282</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.34462518446</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394465287</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U38" t="n">
-        <v>5462.811290515648</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791583</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W38" t="n">
-        <v>4181.776441881535</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X38" t="n">
-        <v>3583.511963638436</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y38" t="n">
-        <v>3067.029708403278</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235929</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927324</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.912438939745</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.77900740246</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500589</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448664</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876547135</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I39" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149473</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213104</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374342</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117201</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.060204215336</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.313206182074</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368562</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249742</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372934</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S39" t="n">
-        <v>5157.673230555812</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T39" t="n">
-        <v>4761.015482194305</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U39" t="n">
-        <v>4356.971427166863</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V39" t="n">
-        <v>3938.273783539064</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021634</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804071</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.55300054535</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="C40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="D40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="E40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="F40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="G40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="I40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967392</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T40" t="n">
-        <v>293.2980670267177</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U40" t="n">
-        <v>140.9600000000256</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="X40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.75934754741</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622049437</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626352619</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E41" t="n">
-        <v>1301.812859072953</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041070162</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960612</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397961</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>1101.367131735743</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K41" t="n">
-        <v>1841.010275303583</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L41" t="n">
-        <v>2758.602998620166</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M41" t="n">
-        <v>3240.782198133669</v>
+        <v>4214.862236188701</v>
       </c>
       <c r="N41" t="n">
-        <v>3805.825262006341</v>
+        <v>4779.905300061373</v>
       </c>
       <c r="O41" t="n">
-        <v>4715.980144947085</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P41" t="n">
-        <v>5981.485937662183</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048.000000001282</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000001282</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.34462518446</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394465287</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922544199</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766820134</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073910086</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595666987</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340431829</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235929</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927324</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.912438939745</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.77900740246</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500589</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448664</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876547135</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149473</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213104</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374342</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117201</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.060204215336</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182074</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368562</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249742</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372934</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432148</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070642</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043199</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415401</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021634</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804071</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.55300054535</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967392</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T43" t="n">
-        <v>140.9600000000256</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U43" t="n">
-        <v>140.9600000000256</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7639,43 +7639,43 @@
         <v>1710.260626351338</v>
       </c>
       <c r="E44" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041070163</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960612</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397961</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154482</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1415.008586083287</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L44" t="n">
-        <v>3159.388586083605</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523947</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396619</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337363</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236999</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R44" t="n">
         <v>7048.000000000002</v>
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235929</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.364647927324</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.912438939745</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.77900740246</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500589</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448664</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876547135</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149473</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213104</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374342</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117201</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.060204215336</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182074</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368562</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249742</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249271</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432148</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070642</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043199</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415401</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021634</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804071</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.55300054535</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967392</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893453</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893453</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893453</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893453</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893453</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893453</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9600000000256</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7996,19 +7996,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>839.6117546115925</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>341.7591690772422</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>176.476835767122</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>685.90893946202</v>
+        <v>459.8234496459327</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -8473,16 +8473,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>842.6516333932175</v>
+        <v>685.9089394605965</v>
       </c>
       <c r="P8" t="n">
-        <v>519.4191429812774</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8692,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4191429812806</v>
+        <v>65.91108999823177</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>842.6516333932184</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>839.6117546117766</v>
+        <v>842.6516333931884</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>713.8352387415321</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>214.6916570402936</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>835.1386633165832</v>
       </c>
       <c r="M17" t="n">
-        <v>392.2657817104562</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,10 +9406,10 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>637.4834235499707</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9421,16 +9421,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>842.6516333932184</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>61.18810711406275</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>105.6954007733575</v>
       </c>
       <c r="K23" t="n">
         <v>716.8751175230994</v>
@@ -9661,10 +9661,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>645.1956588513992</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R23" t="n">
         <v>294.54111633436</v>
@@ -9877,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9898,10 +9898,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>763.2599394199342</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.2158265843876</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>176.4768357656695</v>
@@ -10117,7 +10117,7 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>283.5305021553758</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O29" t="n">
-        <v>842.6516333931884</v>
+        <v>341.7591690772424</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,34 +10351,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.295200532119</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J32" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633169045</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>172.9791916629437</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>842.6516333931884</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>21.63135028027068</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,13 +10606,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>842.6516333935376</v>
+        <v>510.3300622789902</v>
       </c>
       <c r="P35" t="n">
-        <v>637.4834235507633</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
         <v>176.4768357656695</v>
@@ -10825,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>378.1515460156983</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>609.5571242701774</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
         <v>430.3047365861567</v>
@@ -11074,19 +11074,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>65.91108999823189</v>
       </c>
       <c r="P41" t="n">
-        <v>433.9782470885693</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>176.4768357656695</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>835.1386633169031</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>526.932113057414</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,13 +11320,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>419.8640113927006</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292822865</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S13" t="n">
-        <v>316.45975839138</v>
+        <v>151.2469698479536</v>
       </c>
       <c r="T13" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
@@ -23512,13 +23512,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.388344292822865</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>184.3695790733548</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
         <v>199.1703102162162</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.388344292822865</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>33.9575216727898</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23974,7 +23974,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.388344292822978</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24168,7 +24168,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>2.808139187274691</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24180,7 +24180,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R22" t="n">
-        <v>608.1413738827905</v>
+        <v>593.7432716957892</v>
       </c>
       <c r="S22" t="n">
         <v>316.45975839138</v>
@@ -24189,7 +24189,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U22" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>199.1703102162162</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292822865</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>199.1703102162162</v>
@@ -24438,7 +24438,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y25" t="n">
-        <v>287.4653528494624</v>
+        <v>273.067250662461</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>33.55489271692966</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
@@ -24669,7 +24669,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.388344290941745</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.388344290481314</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.533699957048725</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>1.533699956190276</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
@@ -24906,7 +24906,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292976342</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S34" t="n">
-        <v>151.2469698479536</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>199.1703102162162</v>
+        <v>184.7722080292149</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.388344291734086</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.388344291734256</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>184.3695790733548</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F41" t="n">
-        <v>1.388344291733972</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="F44" t="n">
-        <v>1.388344293001751</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R46" t="n">
-        <v>608.1413738827905</v>
+        <v>442.9285853393641</v>
       </c>
       <c r="S46" t="n">
         <v>316.45975839138</v>
@@ -26091,7 +26091,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
         <v>247.4436454301076</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15096.00000993437</v>
+        <v>1240465.351388876</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30103.21645018865</v>
+        <v>2468357.965713155</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45110.4328904424</v>
+        <v>3696250.580037436</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62191.16103297133</v>
+        <v>4796092.45366189</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79271.88917550027</v>
+        <v>5895934.327286343</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96352.6173180292</v>
+        <v>6995776.200910789</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113433.3454605581</v>
+        <v>8095618.074535234</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130514.073603087</v>
+        <v>9195459.948159678</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147594.801745616</v>
+        <v>10295301.82178412</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164675.529888144</v>
+        <v>11395143.69540878</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181756.2580306729</v>
+        <v>12494985.56903322</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198836.9861732019</v>
+        <v>13594827.44265768</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>215917.714315731</v>
+        <v>14694669.31628214</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232998.4424582601</v>
+        <v>15794511.1899066</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250079.1706007892</v>
+        <v>16894353.06353107</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577611</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="C2" t="n">
-        <v>976017.2062577609</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="E2" t="n">
-        <v>874233.2841630344</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630341</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630341</v>
+        <v>874233.284163025</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630343</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="I2" t="n">
-        <v>874233.2841630342</v>
+        <v>874233.2841630249</v>
       </c>
       <c r="J2" t="n">
+        <v>874233.2841630249</v>
+      </c>
+      <c r="K2" t="n">
+        <v>874233.2841631961</v>
+      </c>
+      <c r="L2" t="n">
+        <v>874233.284163025</v>
+      </c>
+      <c r="M2" t="n">
+        <v>874233.2841630247</v>
+      </c>
+      <c r="N2" t="n">
+        <v>874233.2841630249</v>
+      </c>
+      <c r="O2" t="n">
         <v>874233.2841630246</v>
       </c>
-      <c r="K2" t="n">
-        <v>874233.2841631956</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874233.2841630249</v>
-      </c>
-      <c r="M2" t="n">
-        <v>874233.2841631017</v>
-      </c>
-      <c r="N2" t="n">
-        <v>874233.2841631015</v>
-      </c>
-      <c r="O2" t="n">
-        <v>874233.2841631012</v>
-      </c>
       <c r="P2" t="n">
-        <v>874233.2841630232</v>
+        <v>874233.2841630246</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2044699.000000127</v>
+        <v>2044699</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.113435069968303e-07</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.201421350240707e-10</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000001128</v>
+        <v>620224.0000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89075.80382157733</v>
+        <v>89075.80382163514</v>
       </c>
       <c r="C4" t="n">
-        <v>88773.85276709642</v>
+        <v>88773.85276715401</v>
       </c>
       <c r="D4" t="n">
-        <v>88471.49209721485</v>
+        <v>88471.49209722099</v>
       </c>
       <c r="E4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="G4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="H4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="I4" t="n">
-        <v>13783.46259850366</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="J4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="K4" t="n">
-        <v>13783.46259862544</v>
+        <v>13783.46259862526</v>
       </c>
       <c r="L4" t="n">
         <v>13783.46259850302</v>
       </c>
       <c r="M4" t="n">
-        <v>13783.46259850822</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="N4" t="n">
-        <v>13783.46259850821</v>
+        <v>13783.46259850302</v>
       </c>
       <c r="O4" t="n">
-        <v>13783.46259850821</v>
+        <v>13783.46259850303</v>
       </c>
       <c r="P4" t="n">
-        <v>13783.46259850291</v>
+        <v>13783.46259850302</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172607.0000000219</v>
+        <v>172607</v>
       </c>
       <c r="C5" t="n">
-        <v>172607.0000000219</v>
+        <v>172607</v>
       </c>
       <c r="D5" t="n">
-        <v>172607.0000000024</v>
+        <v>172607</v>
       </c>
       <c r="E5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="F5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="G5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="H5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4000000024</v>
+        <v>138979.4</v>
       </c>
       <c r="J5" t="n">
         <v>138979.4</v>
@@ -26505,19 +26505,19 @@
         <v>138979.4</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.4000000196</v>
+        <v>138979.4</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.4000000195</v>
+        <v>138979.4</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4000000195</v>
+        <v>138979.4</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4000000195</v>
+        <v>138979.4</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.4000000195</v>
+        <v>138979.4</v>
       </c>
     </row>
     <row r="6">
@@ -26527,49 +26527,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1330364.597563965</v>
+        <v>-1330364.597563874</v>
       </c>
       <c r="C6" t="n">
-        <v>714636.3534906425</v>
+        <v>714636.3534906066</v>
       </c>
       <c r="D6" t="n">
-        <v>714938.7141606566</v>
+        <v>714938.7141605397</v>
       </c>
       <c r="E6" t="n">
-        <v>721470.421564528</v>
+        <v>721470.4215645219</v>
       </c>
       <c r="F6" t="n">
-        <v>721470.421564528</v>
+        <v>721470.4215645217</v>
       </c>
       <c r="G6" t="n">
-        <v>721470.421564528</v>
+        <v>721470.421564522</v>
       </c>
       <c r="H6" t="n">
-        <v>721470.4215645283</v>
+        <v>721470.4215645219</v>
       </c>
       <c r="I6" t="n">
-        <v>721470.4215645281</v>
+        <v>721470.4215645219</v>
       </c>
       <c r="J6" t="n">
-        <v>101246.4215644088</v>
+        <v>101246.4215645217</v>
       </c>
       <c r="K6" t="n">
-        <v>721470.4215645702</v>
+        <v>721470.4215645709</v>
       </c>
       <c r="L6" t="n">
-        <v>721470.4215645023</v>
+        <v>721470.421564522</v>
       </c>
       <c r="M6" t="n">
-        <v>721470.421564574</v>
+        <v>721470.4215645217</v>
       </c>
       <c r="N6" t="n">
-        <v>721470.4215645738</v>
+        <v>721470.4215645219</v>
       </c>
       <c r="O6" t="n">
-        <v>721470.4215645735</v>
+        <v>721470.4215645216</v>
       </c>
       <c r="P6" t="n">
-        <v>721470.4215645009</v>
+        <v>721470.4215645216</v>
       </c>
     </row>
   </sheetData>
@@ -26919,28 +26919,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1762.00000000036</v>
+        <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>1762.00000000036</v>
+        <v>1762</v>
       </c>
       <c r="D4" t="n">
-        <v>1762.000000000039</v>
+        <v>1762</v>
       </c>
       <c r="E4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="F4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="G4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="H4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="I4" t="n">
-        <v>1762.00000000004</v>
+        <v>1762</v>
       </c>
       <c r="J4" t="n">
         <v>1762</v>
@@ -26949,19 +26949,19 @@
         <v>1762</v>
       </c>
       <c r="L4" t="n">
-        <v>1762.000000000322</v>
+        <v>1762</v>
       </c>
       <c r="M4" t="n">
-        <v>1762.000000000321</v>
+        <v>1762</v>
       </c>
       <c r="N4" t="n">
-        <v>1762.000000000321</v>
+        <v>1762</v>
       </c>
       <c r="O4" t="n">
-        <v>1762.000000000321</v>
+        <v>1762</v>
       </c>
       <c r="P4" t="n">
-        <v>1762.000000000321</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27141,31 +27141,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1762.000000000353</v>
+        <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.139493569985709e-10</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1762.000000000313</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1762.00000000036</v>
+        <v>1762</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344291580438</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533699957573617</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27693,7 +27693,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>31.85592323974635</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>168.0209277307011</v>
+        <v>287.9921561219296</v>
       </c>
       <c r="O4" t="n">
         <v>268.0582198167198</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344291580438</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27845,7 +27845,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573631</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27872,7 +27872,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27930,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>31.85592323974635</v>
@@ -27939,7 +27939,7 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
-        <v>168.0209277307011</v>
+        <v>319.1859637116847</v>
       </c>
       <c r="O7" t="n">
         <v>268.0582198167198</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292826389</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="E9" t="n">
-        <v>1.533699957574072</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -28167,10 +28167,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>19.22325579770344</v>
       </c>
       <c r="L10" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
         <v>107.6476277959926</v>
@@ -28179,7 +28179,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P10" t="n">
         <v>368.8061924102448</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,28 +29744,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="N30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>1.78260961547494e-10</v>
       </c>
       <c r="P30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -29789,7 +29789,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -34831,28 +34831,28 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L2" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N2" t="n">
-        <v>1410.362324179948</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>844.3104324216301</v>
+        <v>1186.069601498872</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>1.452435478285858e-09</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34989,7 +34989,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
-        <v>168.7357375896766</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35071,19 +35071,19 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>1612.770276145437</v>
+        <v>1386.68478632935</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O5" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
         <v>461.4348583860824</v>
@@ -35226,7 +35226,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>168.7357375896766</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35235,7 +35235,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.1142864321607</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834177</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35317,16 +35317,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>1762.00000000003</v>
+        <v>1605.257306067409</v>
       </c>
       <c r="P8" t="n">
-        <v>1363.729575402908</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q8" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35463,10 +35463,10 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K10" t="n">
-        <v>17.57070160869296</v>
+        <v>36.7939574063964</v>
       </c>
       <c r="L10" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -35475,7 +35475,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35536,25 +35536,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
         <v>747.1142864321607</v>
       </c>
       <c r="L11" t="n">
-        <v>1446.280479664698</v>
+        <v>992.772426681649</v>
       </c>
       <c r="M11" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>1762.00000000003</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
@@ -35563,7 +35563,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35779,7 +35779,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L14" t="n">
         <v>926.8613366834174</v>
@@ -35791,10 +35791,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>1758.960121218589</v>
+        <v>1762</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1558.145671163162</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36010,19 +36010,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>961.8059434724546</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>1762</v>
       </c>
       <c r="M17" t="n">
-        <v>879.3154781887418</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36034,10 +36034,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36250,13 +36250,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>1384.597709982132</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36265,16 +36265,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
-        <v>1762.00000000003</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>522.6229655001451</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,10 +36484,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>463.4516620966183</v>
+        <v>569.1470628699758</v>
       </c>
       <c r="K23" t="n">
         <v>1463.989403955261</v>
@@ -36505,10 +36505,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>1489.506091273029</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R23" t="n">
         <v>118.0642805686905</v>
@@ -36721,19 +36721,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
         <v>570.7505695683558</v>
@@ -36742,10 +36742,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1607.570371841564</v>
       </c>
       <c r="Q26" t="n">
-        <v>957.65068497047</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36961,22 +36961,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.1142864321607</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
         <v>926.8613366834174</v>
       </c>
       <c r="M29" t="n">
-        <v>770.5801986336614</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O29" t="n">
-        <v>1762</v>
+        <v>1261.107535684054</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
@@ -36985,7 +36985,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37040,28 +37040,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156717945</v>
+        <v>422.1086156716381</v>
       </c>
       <c r="K30" t="n">
-        <v>698.5532603013252</v>
+        <v>698.553260301347</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244054474</v>
+        <v>956.4197244052909</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421646607</v>
+        <v>883.1950421646825</v>
       </c>
       <c r="N30" t="n">
-        <v>951.9457859578679</v>
+        <v>951.9457859577115</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464312048</v>
+        <v>989.1444464312266</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799865078</v>
+        <v>713.7510799863513</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160417524</v>
+        <v>228.0617160415959</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37195,34 +37195,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.601017044843033e-11</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J32" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>1762.000000000322</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
-        <v>660.0288881412293</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O32" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>865.9417827019008</v>
       </c>
       <c r="Q32" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,16 +37432,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
         <v>747.1142864321607</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834177</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37450,13 +37450,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>1762.00000000035</v>
+        <v>1429.678428885802</v>
       </c>
       <c r="P35" t="n">
-        <v>1481.793855972393</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37669,19 +37669,19 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>841.6032081123165</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321607</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>1536.418460953595</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,31 +37906,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L41" t="n">
         <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>985.259456605044</v>
       </c>
       <c r="P41" t="n">
-        <v>1278.288679510199</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38149,13 +38149,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.1142864321607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L44" t="n">
-        <v>1762.000000000321</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M44" t="n">
-        <v>1013.9818095357</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
@@ -38164,13 +38164,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1264.174443814331</v>
       </c>
       <c r="Q44" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
